--- a/data/pca/factorExposure/factorExposure_2017-11-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02324084506040856</v>
+        <v>-0.01376051491832987</v>
       </c>
       <c r="C2">
-        <v>-0.0009516586245044978</v>
+        <v>0.03810520716154706</v>
       </c>
       <c r="D2">
-        <v>-0.0124479572520637</v>
+        <v>0.0282616248169951</v>
       </c>
       <c r="E2">
-        <v>-0.01661873347336203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02961746445960426</v>
+      </c>
+      <c r="F2">
+        <v>-0.03091267846701246</v>
+      </c>
+      <c r="G2">
+        <v>0.01628927779027698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0131699237646012</v>
+        <v>-0.05156181672154663</v>
       </c>
       <c r="C3">
-        <v>0.05640042673418296</v>
+        <v>0.07946865544473723</v>
       </c>
       <c r="D3">
-        <v>0.02224218445019838</v>
+        <v>0.01417300026961966</v>
       </c>
       <c r="E3">
-        <v>0.007742207391328435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.07759444266446863</v>
+      </c>
+      <c r="F3">
+        <v>-0.05666752463245919</v>
+      </c>
+      <c r="G3">
+        <v>0.0688442444340316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02233794283403922</v>
+        <v>-0.05349304583588865</v>
       </c>
       <c r="C4">
-        <v>0.03097093696878868</v>
+        <v>0.0658893676287757</v>
       </c>
       <c r="D4">
-        <v>-0.04936962508734495</v>
+        <v>0.02231457120823868</v>
       </c>
       <c r="E4">
-        <v>-0.002080380530329493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.001705781864448662</v>
+      </c>
+      <c r="F4">
+        <v>-0.01585587253076808</v>
+      </c>
+      <c r="G4">
+        <v>0.04511950196356449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01505245012653223</v>
+        <v>-0.03130733707785841</v>
       </c>
       <c r="C6">
-        <v>0.04732862678478891</v>
+        <v>0.05449281986714927</v>
       </c>
       <c r="D6">
-        <v>-0.05458347085965046</v>
+        <v>0.01622884263354566</v>
       </c>
       <c r="E6">
-        <v>-0.0198019693806995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.006897869971944559</v>
+      </c>
+      <c r="F6">
+        <v>-0.0172120106153151</v>
+      </c>
+      <c r="G6">
+        <v>0.02622693741706801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01060117328227203</v>
+        <v>-0.0189520475433525</v>
       </c>
       <c r="C7">
-        <v>0.02033964374595002</v>
+        <v>0.03809367345843229</v>
       </c>
       <c r="D7">
-        <v>-0.03955786402493514</v>
+        <v>0.01241477008970583</v>
       </c>
       <c r="E7">
-        <v>0.05953357320156535</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01206656232676056</v>
+      </c>
+      <c r="F7">
+        <v>-0.01129786295834502</v>
+      </c>
+      <c r="G7">
+        <v>0.07808066589839309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0007097112446937839</v>
+        <v>0.003060847304660664</v>
       </c>
       <c r="C8">
-        <v>-0.01453792202703858</v>
+        <v>0.01453466324036472</v>
       </c>
       <c r="D8">
-        <v>-0.02428637286969362</v>
+        <v>0.003816447391091838</v>
       </c>
       <c r="E8">
-        <v>-0.003025571020069389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01791672274871042</v>
+      </c>
+      <c r="F8">
+        <v>-0.01893552316954012</v>
+      </c>
+      <c r="G8">
+        <v>0.0284435939644043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01438308992974145</v>
+        <v>-0.02709149807539581</v>
       </c>
       <c r="C9">
-        <v>0.02455121849621496</v>
+        <v>0.04421497717867456</v>
       </c>
       <c r="D9">
-        <v>-0.02822630460441793</v>
+        <v>0.01553810430491004</v>
       </c>
       <c r="E9">
-        <v>-0.004129696562386266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.006747809100119629</v>
+      </c>
+      <c r="F9">
+        <v>-0.01959572925506975</v>
+      </c>
+      <c r="G9">
+        <v>0.03511850896110672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.007964127436586027</v>
+        <v>-0.09055621734942186</v>
       </c>
       <c r="C10">
-        <v>0.09454153428534823</v>
+        <v>-0.1835701976563528</v>
       </c>
       <c r="D10">
-        <v>0.1387113903887622</v>
+        <v>-0.01836008557552246</v>
       </c>
       <c r="E10">
-        <v>0.06490728961522919</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02121835779437976</v>
+      </c>
+      <c r="F10">
+        <v>0.017480331461318</v>
+      </c>
+      <c r="G10">
+        <v>0.03741518724993615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-7.704561575499387e-05</v>
+        <v>-0.03507986836211485</v>
       </c>
       <c r="C11">
-        <v>0.01638719873868517</v>
+        <v>0.05362934261156847</v>
       </c>
       <c r="D11">
-        <v>-0.02984942011218825</v>
+        <v>0.001338143556499481</v>
       </c>
       <c r="E11">
-        <v>-0.02063961719482118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.0004781786291758026</v>
+      </c>
+      <c r="F11">
+        <v>-0.02468556196617868</v>
+      </c>
+      <c r="G11">
+        <v>0.01737702547911336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005410482566073457</v>
+        <v>-0.03238556840208824</v>
       </c>
       <c r="C12">
-        <v>0.02620832336726187</v>
+        <v>0.04553087458412223</v>
       </c>
       <c r="D12">
-        <v>-0.03424016494322406</v>
+        <v>0.00548932016326755</v>
       </c>
       <c r="E12">
-        <v>-0.01569952602708282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.008209126626704952</v>
+      </c>
+      <c r="F12">
+        <v>-0.006866927465012514</v>
+      </c>
+      <c r="G12">
+        <v>0.0202541908344081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02073208050921167</v>
+        <v>-0.0115400808441389</v>
       </c>
       <c r="C13">
-        <v>0.00928389796411306</v>
+        <v>0.03417706198720243</v>
       </c>
       <c r="D13">
-        <v>-0.00573110317780693</v>
+        <v>0.02465659515866274</v>
       </c>
       <c r="E13">
-        <v>-0.009780021316609957</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.0246330092316702</v>
+      </c>
+      <c r="F13">
+        <v>-0.02159764266843804</v>
+      </c>
+      <c r="G13">
+        <v>0.03045829856256426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007093836557563873</v>
+        <v>-0.00746908599322922</v>
       </c>
       <c r="C14">
-        <v>0.01503103800865337</v>
+        <v>0.02517406796510582</v>
       </c>
       <c r="D14">
-        <v>-0.01364520996792443</v>
+        <v>0.008301307348634901</v>
       </c>
       <c r="E14">
-        <v>0.00738725110330965</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004757743232505567</v>
+      </c>
+      <c r="F14">
+        <v>-0.002303948951690398</v>
+      </c>
+      <c r="G14">
+        <v>0.03895391531478262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0004872045515453282</v>
+        <v>-0.03144714331520329</v>
       </c>
       <c r="C16">
-        <v>0.02256316128732866</v>
+        <v>0.04375137612097631</v>
       </c>
       <c r="D16">
-        <v>-0.03767392759557439</v>
+        <v>0.0009928424388119437</v>
       </c>
       <c r="E16">
-        <v>-0.01816645624743322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.001225347770206319</v>
+      </c>
+      <c r="F16">
+        <v>-0.009837838394745172</v>
+      </c>
+      <c r="G16">
+        <v>0.02051804052800448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01196649712902326</v>
+        <v>-0.02781091576350383</v>
       </c>
       <c r="C19">
-        <v>0.01809216321373227</v>
+        <v>0.0560776203729386</v>
       </c>
       <c r="D19">
-        <v>-0.02976570215345339</v>
+        <v>0.01553498863612979</v>
       </c>
       <c r="E19">
-        <v>-0.01070255920711447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04228607205082828</v>
+      </c>
+      <c r="F19">
+        <v>-0.0375552182435253</v>
+      </c>
+      <c r="G19">
+        <v>0.04073696732440946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.009584020264445148</v>
+        <v>-0.01074222835110818</v>
       </c>
       <c r="C20">
-        <v>0.0006442658779309686</v>
+        <v>0.03511263173037611</v>
       </c>
       <c r="D20">
-        <v>-0.004829532448716227</v>
+        <v>0.01308702335135035</v>
       </c>
       <c r="E20">
-        <v>0.002593008142455673</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02224760791038157</v>
+      </c>
+      <c r="F20">
+        <v>-0.005540423938188691</v>
+      </c>
+      <c r="G20">
+        <v>0.03189361437443211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01374697921607204</v>
+        <v>-0.01168886548646143</v>
       </c>
       <c r="C21">
-        <v>0.03235141481523649</v>
+        <v>0.03399760065161878</v>
       </c>
       <c r="D21">
-        <v>-0.01853128581780341</v>
+        <v>0.01617699096419575</v>
       </c>
       <c r="E21">
-        <v>0.01226768114967203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02965649259687328</v>
+      </c>
+      <c r="F21">
+        <v>-0.01923300303251795</v>
+      </c>
+      <c r="G21">
+        <v>0.05609648310381036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004409047252543734</v>
+        <v>-0.02626771578894458</v>
       </c>
       <c r="C24">
-        <v>0.01749319236262249</v>
+        <v>0.04663145759136272</v>
       </c>
       <c r="D24">
-        <v>-0.03231694827170083</v>
+        <v>0.006262220391608257</v>
       </c>
       <c r="E24">
-        <v>-0.01619329402831398</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.004595154541364831</v>
+      </c>
+      <c r="F24">
+        <v>-0.0198480253042337</v>
+      </c>
+      <c r="G24">
+        <v>0.0194532414674006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01107915139174734</v>
+        <v>-0.04314939285528133</v>
       </c>
       <c r="C25">
-        <v>0.03310143391701066</v>
+        <v>0.05387909261573144</v>
       </c>
       <c r="D25">
-        <v>-0.03245933691730239</v>
+        <v>0.01012101874412907</v>
       </c>
       <c r="E25">
-        <v>-0.01912098660694882</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01172634295681746</v>
+      </c>
+      <c r="F25">
+        <v>-0.01527891904091517</v>
+      </c>
+      <c r="G25">
+        <v>0.02524245190806666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.0228522199520541</v>
+        <v>-0.007868901550069411</v>
       </c>
       <c r="C26">
-        <v>0.004634930972561197</v>
+        <v>0.009251438584394573</v>
       </c>
       <c r="D26">
-        <v>0.0003139133563660813</v>
+        <v>0.02374269967701487</v>
       </c>
       <c r="E26">
-        <v>0.007099119535079372</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.009923218365582109</v>
+      </c>
+      <c r="F26">
+        <v>-0.006172548409042977</v>
+      </c>
+      <c r="G26">
+        <v>0.0269138541298823</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02378201153642263</v>
+        <v>-0.1143916245926248</v>
       </c>
       <c r="C28">
-        <v>0.1386266194350905</v>
+        <v>-0.2262558784178491</v>
       </c>
       <c r="D28">
-        <v>0.2142819951663518</v>
+        <v>-0.009739569319565138</v>
       </c>
       <c r="E28">
-        <v>0.1080626653536726</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.010807773996426</v>
+      </c>
+      <c r="F28">
+        <v>0.009580375103751442</v>
+      </c>
+      <c r="G28">
+        <v>0.05441715747396272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006998047571780902</v>
+        <v>-0.01251523137475597</v>
       </c>
       <c r="C29">
-        <v>0.01697478924304715</v>
+        <v>0.01898675773951155</v>
       </c>
       <c r="D29">
-        <v>-0.009443501030572399</v>
+        <v>0.007052134799421659</v>
       </c>
       <c r="E29">
-        <v>0.004850606501702007</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.00243771281318898</v>
+      </c>
+      <c r="F29">
+        <v>0.007379012611618249</v>
+      </c>
+      <c r="G29">
+        <v>0.0309036961015891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02420881080051562</v>
+        <v>-0.03947739197231523</v>
       </c>
       <c r="C30">
-        <v>0.0314718068896622</v>
+        <v>0.07102212788969288</v>
       </c>
       <c r="D30">
-        <v>-0.02722338194917292</v>
+        <v>0.026836132684253</v>
       </c>
       <c r="E30">
-        <v>-0.07522609991313221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02247451948767872</v>
+      </c>
+      <c r="F30">
+        <v>-0.04562089878107815</v>
+      </c>
+      <c r="G30">
+        <v>-0.0005075501520224163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.006371045440576116</v>
+        <v>-0.04382152603249622</v>
       </c>
       <c r="C31">
-        <v>0.05069611125442463</v>
+        <v>0.03158232413157711</v>
       </c>
       <c r="D31">
-        <v>-0.02311412572611803</v>
+        <v>0.002909894017707451</v>
       </c>
       <c r="E31">
-        <v>-0.003497921184290709</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.009494534330664927</v>
+      </c>
+      <c r="F31">
+        <v>0.03708929066282406</v>
+      </c>
+      <c r="G31">
+        <v>0.02541568485642979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.008500984365515187</v>
+        <v>-0.00502150492250234</v>
       </c>
       <c r="C32">
-        <v>-0.004645375674075763</v>
+        <v>0.03241677640289692</v>
       </c>
       <c r="D32">
-        <v>-0.02611903539704152</v>
+        <v>-0.005177352850524782</v>
       </c>
       <c r="E32">
-        <v>0.01702285766644356</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01504891068981014</v>
+      </c>
+      <c r="F32">
+        <v>-0.06977413337303476</v>
+      </c>
+      <c r="G32">
+        <v>0.0499948455377411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01176970809236676</v>
+        <v>-0.02863575303614056</v>
       </c>
       <c r="C33">
-        <v>0.02228093201293981</v>
+        <v>0.05036647371481721</v>
       </c>
       <c r="D33">
-        <v>-0.01199730599554865</v>
+        <v>0.01397814242068741</v>
       </c>
       <c r="E33">
-        <v>-0.03172638931032564</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02149764337683571</v>
+      </c>
+      <c r="F33">
+        <v>-0.02478100531651095</v>
+      </c>
+      <c r="G33">
+        <v>0.02792346093710176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005325878180181373</v>
+        <v>-0.04521330290230685</v>
       </c>
       <c r="C34">
-        <v>0.02882218481886562</v>
+        <v>0.05498523109092497</v>
       </c>
       <c r="D34">
-        <v>-0.04112663304606039</v>
+        <v>-0.005859747269585183</v>
       </c>
       <c r="E34">
-        <v>-0.01139501486247715</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0101109982189408</v>
+      </c>
+      <c r="F34">
+        <v>-0.02296399251090724</v>
+      </c>
+      <c r="G34">
+        <v>0.031105186863242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01171216142673879</v>
+        <v>-0.0105385234088698</v>
       </c>
       <c r="C36">
-        <v>0.01567721108860627</v>
+        <v>0.007149248667901861</v>
       </c>
       <c r="D36">
-        <v>-0.0004998078218780368</v>
+        <v>0.01118091805323124</v>
       </c>
       <c r="E36">
-        <v>-0.0004248190707006455</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0007600146720467166</v>
+      </c>
+      <c r="F36">
+        <v>-0.0005546748011890993</v>
+      </c>
+      <c r="G36">
+        <v>0.0200010865184013</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006084984884864253</v>
+        <v>-0.03393770006521178</v>
       </c>
       <c r="C38">
-        <v>0.02975247204004112</v>
+        <v>0.02563360157754932</v>
       </c>
       <c r="D38">
-        <v>-0.01761838337536176</v>
+        <v>-0.008152126518700833</v>
       </c>
       <c r="E38">
-        <v>-0.01326176206079567</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.0050215154108964</v>
+      </c>
+      <c r="F38">
+        <v>0.0007899974282094547</v>
+      </c>
+      <c r="G38">
+        <v>0.02914999300784547</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005383201717855259</v>
+        <v>-0.03190554524030362</v>
       </c>
       <c r="C39">
-        <v>0.01280794606700187</v>
+        <v>0.08315283481971797</v>
       </c>
       <c r="D39">
-        <v>-0.06430490175690946</v>
+        <v>0.01149441371462809</v>
       </c>
       <c r="E39">
-        <v>-0.02813990977793787</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0127279187108072</v>
+      </c>
+      <c r="F39">
+        <v>-0.0404893608709557</v>
+      </c>
+      <c r="G39">
+        <v>0.0211573540209721</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01062821877028559</v>
+        <v>-0.01942307405716372</v>
       </c>
       <c r="C40">
-        <v>0.0234384971064494</v>
+        <v>0.03063243782899973</v>
       </c>
       <c r="D40">
-        <v>-0.03073111387124219</v>
+        <v>0.01278690693203451</v>
       </c>
       <c r="E40">
-        <v>-0.02636553180073709</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01727475191694059</v>
+      </c>
+      <c r="F40">
+        <v>-0.01942933168911722</v>
+      </c>
+      <c r="G40">
+        <v>0.02168351279835297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005077504539871999</v>
+        <v>-0.01165786920717189</v>
       </c>
       <c r="C41">
-        <v>0.01540455248611084</v>
+        <v>-0.001748594847261657</v>
       </c>
       <c r="D41">
-        <v>0.008215074369395448</v>
+        <v>0.00353634712543188</v>
       </c>
       <c r="E41">
-        <v>0.003778511050025506</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003197412906307051</v>
+      </c>
+      <c r="F41">
+        <v>-0.001460698105942021</v>
+      </c>
+      <c r="G41">
+        <v>0.0144574508772035</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09362335580736682</v>
+        <v>-0.03074139281898751</v>
       </c>
       <c r="C42">
-        <v>0.1236936354205066</v>
+        <v>0.05449156738472834</v>
       </c>
       <c r="D42">
-        <v>-0.105693744593036</v>
+        <v>0.101405744266272</v>
       </c>
       <c r="E42">
-        <v>-0.3123406445852617</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.05638685620297992</v>
+      </c>
+      <c r="F42">
+        <v>0.1077215340111431</v>
+      </c>
+      <c r="G42">
+        <v>-0.2189978445557283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.006309018296010281</v>
+        <v>-0.02830749265729365</v>
       </c>
       <c r="C43">
-        <v>0.01928487885607976</v>
+        <v>0.00838681062153087</v>
       </c>
       <c r="D43">
-        <v>0.007950559895750168</v>
+        <v>0.003758942742826205</v>
       </c>
       <c r="E43">
-        <v>-0.003278815773455523</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003848086596264816</v>
+      </c>
+      <c r="F43">
+        <v>0.0001773229445580171</v>
+      </c>
+      <c r="G43">
+        <v>0.01933583485779108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002524369839012959</v>
+        <v>-0.01541319169000021</v>
       </c>
       <c r="C44">
-        <v>0.001328451689550879</v>
+        <v>0.04698674285253321</v>
       </c>
       <c r="D44">
-        <v>-0.01402835689025224</v>
+        <v>0.006403733481965333</v>
       </c>
       <c r="E44">
-        <v>0.001488053292785308</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01945799045567229</v>
+      </c>
+      <c r="F44">
+        <v>-0.02396556368671309</v>
+      </c>
+      <c r="G44">
+        <v>0.03568974498418474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01014146676964438</v>
+        <v>-0.003402694506302187</v>
       </c>
       <c r="C46">
-        <v>0.01304457920729086</v>
+        <v>0.01620425276443441</v>
       </c>
       <c r="D46">
-        <v>-0.01466944352283749</v>
+        <v>0.01138345459570644</v>
       </c>
       <c r="E46">
-        <v>-0.006696278951776618</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001988606503706999</v>
+      </c>
+      <c r="F46">
+        <v>0.009889378151068018</v>
+      </c>
+      <c r="G46">
+        <v>0.02551000170610496</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0008023060090546686</v>
+        <v>-0.07445109156553546</v>
       </c>
       <c r="C47">
-        <v>0.07115294949096206</v>
+        <v>0.06400303408902372</v>
       </c>
       <c r="D47">
-        <v>-0.0321815673872246</v>
+        <v>-0.005204875360666669</v>
       </c>
       <c r="E47">
-        <v>-0.01925148744444871</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01269796784931378</v>
+      </c>
+      <c r="F47">
+        <v>0.06230158561741805</v>
+      </c>
+      <c r="G47">
+        <v>0.0249624121339761</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002600675806142239</v>
+        <v>-0.01906026789397434</v>
       </c>
       <c r="C48">
-        <v>0.02600455320519733</v>
+        <v>0.01026609922984576</v>
       </c>
       <c r="D48">
-        <v>-0.003337902652315241</v>
+        <v>0.0007686050388297875</v>
       </c>
       <c r="E48">
-        <v>-0.004067983764590458</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002004701240043588</v>
+      </c>
+      <c r="F48">
+        <v>0.01334885213255703</v>
+      </c>
+      <c r="G48">
+        <v>0.0233685959369915</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.001791972688868541</v>
+        <v>-0.07901439892899977</v>
       </c>
       <c r="C50">
-        <v>0.06365964136486189</v>
+        <v>0.06487998355467223</v>
       </c>
       <c r="D50">
-        <v>-0.0458644874862932</v>
+        <v>-0.004448613876274352</v>
       </c>
       <c r="E50">
-        <v>0.003546366438407858</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01540574191725425</v>
+      </c>
+      <c r="F50">
+        <v>0.05792623546175816</v>
+      </c>
+      <c r="G50">
+        <v>0.04474897198241135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006477165831900182</v>
+        <v>-0.0116182586162009</v>
       </c>
       <c r="C51">
-        <v>0.005249138349124739</v>
+        <v>0.02736120986908775</v>
       </c>
       <c r="D51">
-        <v>0.008062711403027074</v>
+        <v>0.008683891766086865</v>
       </c>
       <c r="E51">
-        <v>0.01575292445442958</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.006775244731495939</v>
+      </c>
+      <c r="F51">
+        <v>-0.02905823774632376</v>
+      </c>
+      <c r="G51">
+        <v>0.04852174318773618</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003241711487518666</v>
+        <v>-0.09572197827915738</v>
       </c>
       <c r="C53">
-        <v>0.10432689275936</v>
+        <v>0.07683215776394352</v>
       </c>
       <c r="D53">
-        <v>-0.07275329684153219</v>
+        <v>-0.006103268386242961</v>
       </c>
       <c r="E53">
-        <v>-0.02986808311579081</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03893272192047369</v>
+      </c>
+      <c r="F53">
+        <v>0.06579913296316951</v>
+      </c>
+      <c r="G53">
+        <v>0.02395556028062465</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002018338712781497</v>
+        <v>-0.02853119797453085</v>
       </c>
       <c r="C54">
-        <v>0.02549507543042761</v>
+        <v>0.005000237334002595</v>
       </c>
       <c r="D54">
-        <v>0.004766375542466098</v>
+        <v>-0.004035376471796124</v>
       </c>
       <c r="E54">
-        <v>0.01282719497086366</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.004498270594010756</v>
+      </c>
+      <c r="F54">
+        <v>0.002626668903051245</v>
+      </c>
+      <c r="G54">
+        <v>0.03350413067784765</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0008742714121094971</v>
+        <v>-0.07326321820824519</v>
       </c>
       <c r="C55">
-        <v>0.07929012879269273</v>
+        <v>0.07186520098721313</v>
       </c>
       <c r="D55">
-        <v>-0.06702508835818981</v>
+        <v>-0.00501279999659815</v>
       </c>
       <c r="E55">
-        <v>-0.03798438026550405</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02801565926500937</v>
+      </c>
+      <c r="F55">
+        <v>0.06305488991713233</v>
+      </c>
+      <c r="G55">
+        <v>0.01011075864227725</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0005739299694529106</v>
+        <v>-0.1456973929119044</v>
       </c>
       <c r="C56">
-        <v>0.1418590752173427</v>
+        <v>0.1009157235491708</v>
       </c>
       <c r="D56">
-        <v>-0.08740800548143468</v>
+        <v>-0.01444425566992834</v>
       </c>
       <c r="E56">
-        <v>-0.04662359291972626</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0427006424531288</v>
+      </c>
+      <c r="F56">
+        <v>0.1013237827446528</v>
+      </c>
+      <c r="G56">
+        <v>0.001556043804950147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02325218785066375</v>
+        <v>-0.0122666682298078</v>
       </c>
       <c r="C57">
-        <v>0.03081865570945095</v>
+        <v>0.01190257426041286</v>
       </c>
       <c r="D57">
-        <v>-0.02200043946149106</v>
+        <v>0.02361764510142172</v>
       </c>
       <c r="E57">
-        <v>-0.0164558406001277</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02734499987438756</v>
+      </c>
+      <c r="F57">
+        <v>-0.01507053911014857</v>
+      </c>
+      <c r="G57">
+        <v>0.02300399507515997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01193538496432273</v>
+        <v>-0.06920999994344842</v>
       </c>
       <c r="C58">
-        <v>0.1038450443860726</v>
+        <v>0.07408958729532868</v>
       </c>
       <c r="D58">
-        <v>0.04775738326017671</v>
+        <v>0.02224320459434329</v>
       </c>
       <c r="E58">
-        <v>-0.1518969906723984</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9406689508711856</v>
+      </c>
+      <c r="F58">
+        <v>0.2431120551083259</v>
+      </c>
+      <c r="G58">
+        <v>0.05161492649785834</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02015541783253123</v>
+        <v>-0.1504339495740876</v>
       </c>
       <c r="C59">
-        <v>0.1395351298774012</v>
+        <v>-0.2123838474544371</v>
       </c>
       <c r="D59">
-        <v>0.205321289433965</v>
+        <v>-0.01612913139901592</v>
       </c>
       <c r="E59">
-        <v>0.07533954449149402</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01880666007329388</v>
+      </c>
+      <c r="F59">
+        <v>-0.008693948316821376</v>
+      </c>
+      <c r="G59">
+        <v>0.0220764821305035</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02788266286224527</v>
+        <v>-0.2932017516531919</v>
       </c>
       <c r="C60">
-        <v>0.1869383398877049</v>
+        <v>0.08546829384510055</v>
       </c>
       <c r="D60">
-        <v>0.01355175968910233</v>
+        <v>0.007357918715884864</v>
       </c>
       <c r="E60">
-        <v>-0.04738851935857535</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.02642525756095536</v>
+      </c>
+      <c r="F60">
+        <v>-0.3862945887406776</v>
+      </c>
+      <c r="G60">
+        <v>-0.07378953986409294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002725025235113576</v>
+        <v>-0.03314579367319689</v>
       </c>
       <c r="C61">
-        <v>0.02484655861244413</v>
+        <v>0.06345015839901565</v>
       </c>
       <c r="D61">
-        <v>-0.05045229244317198</v>
+        <v>0.004868226960196617</v>
       </c>
       <c r="E61">
-        <v>-0.02569260823149113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.008118809900932585</v>
+      </c>
+      <c r="F61">
+        <v>-0.02478638370026214</v>
+      </c>
+      <c r="G61">
+        <v>0.02389665242047614</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007370479899383291</v>
+        <v>-0.01404565027734816</v>
       </c>
       <c r="C63">
-        <v>0.01184059498701833</v>
+        <v>0.02633544974315405</v>
       </c>
       <c r="D63">
-        <v>-0.01575111123369408</v>
+        <v>0.007788555811474304</v>
       </c>
       <c r="E63">
-        <v>-0.002326952596539841</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.009466665760756776</v>
+      </c>
+      <c r="F63">
+        <v>0.01115098740129579</v>
+      </c>
+      <c r="G63">
+        <v>0.03150855574579147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.005789225734135524</v>
+        <v>-0.04710602379639634</v>
       </c>
       <c r="C64">
-        <v>0.04226571785728737</v>
+        <v>0.03579417231104273</v>
       </c>
       <c r="D64">
-        <v>-0.04037181669536865</v>
+        <v>0.004411786497161305</v>
       </c>
       <c r="E64">
-        <v>-0.02513040144140133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.009327322288748432</v>
+      </c>
+      <c r="F64">
+        <v>-0.01202388368501491</v>
+      </c>
+      <c r="G64">
+        <v>0.0199413231928521</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01743362411911568</v>
+        <v>-0.08103741255938095</v>
       </c>
       <c r="C65">
-        <v>0.05851698765062333</v>
+        <v>0.06749203499369041</v>
       </c>
       <c r="D65">
-        <v>-0.06192397658692821</v>
+        <v>0.01495716691674189</v>
       </c>
       <c r="E65">
-        <v>-0.02575982237658515</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.004402098938870298</v>
+      </c>
+      <c r="F65">
+        <v>-0.04226298429304341</v>
+      </c>
+      <c r="G65">
+        <v>0.01114924327939295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005127120333434243</v>
+        <v>-0.05330375889636833</v>
       </c>
       <c r="C66">
-        <v>0.0309330585435673</v>
+        <v>0.1159553391392819</v>
       </c>
       <c r="D66">
-        <v>-0.07268943685760379</v>
+        <v>0.01085004391619876</v>
       </c>
       <c r="E66">
-        <v>-0.0505496779154963</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.01444727274416347</v>
+      </c>
+      <c r="F66">
+        <v>-0.05055660226748234</v>
+      </c>
+      <c r="G66">
+        <v>0.01372834447424197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001283972652751777</v>
+        <v>-0.05774077621324098</v>
       </c>
       <c r="C67">
-        <v>0.04747818671663694</v>
+        <v>0.02954671702728279</v>
       </c>
       <c r="D67">
-        <v>-0.01444212953286787</v>
+        <v>-0.006727926954931547</v>
       </c>
       <c r="E67">
-        <v>-0.01488089642021376</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.002760402250334875</v>
+      </c>
+      <c r="F67">
+        <v>0.002642319536175824</v>
+      </c>
+      <c r="G67">
+        <v>0.02810948954903646</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03758352344124914</v>
+        <v>-0.1339284324955585</v>
       </c>
       <c r="C68">
-        <v>0.1234013617153399</v>
+        <v>-0.2704226363602595</v>
       </c>
       <c r="D68">
-        <v>0.2112851536143268</v>
+        <v>0.001617124372451339</v>
       </c>
       <c r="E68">
-        <v>0.0822988766572908</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.02041312868165048</v>
+      </c>
+      <c r="F68">
+        <v>0.01491059913628722</v>
+      </c>
+      <c r="G68">
+        <v>0.01683460219894213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.00309872243973193</v>
+        <v>-0.07763309489475985</v>
       </c>
       <c r="C69">
-        <v>0.06121026383645539</v>
+        <v>0.0642782528900552</v>
       </c>
       <c r="D69">
-        <v>-0.03661489767281634</v>
+        <v>-0.009416979459838456</v>
       </c>
       <c r="E69">
-        <v>-0.01752459448207546</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03013781056348225</v>
+      </c>
+      <c r="F69">
+        <v>0.0394121978038838</v>
+      </c>
+      <c r="G69">
+        <v>0.02380159802322969</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02594603238442448</v>
+        <v>-0.1292134567604111</v>
       </c>
       <c r="C71">
-        <v>0.1130429566865088</v>
+        <v>-0.2268020327297494</v>
       </c>
       <c r="D71">
-        <v>0.1852002991094192</v>
+        <v>-0.007011188541027447</v>
       </c>
       <c r="E71">
-        <v>0.0852650130787965</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02783229112483936</v>
+      </c>
+      <c r="F71">
+        <v>0.0187088282107913</v>
+      </c>
+      <c r="G71">
+        <v>0.03439991443123849</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002508926328721984</v>
+        <v>-0.08475456416322111</v>
       </c>
       <c r="C72">
-        <v>0.1035369032311857</v>
+        <v>0.07733599338584655</v>
       </c>
       <c r="D72">
-        <v>-0.08593210055878041</v>
+        <v>-0.009168701294180157</v>
       </c>
       <c r="E72">
-        <v>-0.0689982332359823</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01114412923858541</v>
+      </c>
+      <c r="F72">
+        <v>-0.03960043093440805</v>
+      </c>
+      <c r="G72">
+        <v>-0.002852264365738348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04149047332111363</v>
+        <v>-0.405267596910903</v>
       </c>
       <c r="C73">
-        <v>0.2366181656051749</v>
+        <v>0.1021055289969586</v>
       </c>
       <c r="D73">
-        <v>-0.01457358947257594</v>
+        <v>0.01159023376475556</v>
       </c>
       <c r="E73">
-        <v>-0.1329439795864178</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07222306743446688</v>
+      </c>
+      <c r="F73">
+        <v>-0.5345717298574212</v>
+      </c>
+      <c r="G73">
+        <v>-0.1284470473094352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0007477615410974907</v>
+        <v>-0.1165481159712291</v>
       </c>
       <c r="C74">
-        <v>0.1312698070704538</v>
+        <v>0.1165922113769639</v>
       </c>
       <c r="D74">
-        <v>-0.08150242608774401</v>
+        <v>-0.01098151109170918</v>
       </c>
       <c r="E74">
-        <v>-0.05277881859341441</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.03965956905871009</v>
+      </c>
+      <c r="F74">
+        <v>0.07031076584735362</v>
+      </c>
+      <c r="G74">
+        <v>0.02208146028507082</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.0003578353984956229</v>
+        <v>-0.2613569324712186</v>
       </c>
       <c r="C75">
-        <v>0.2792894198695934</v>
+        <v>0.1467623011351808</v>
       </c>
       <c r="D75">
-        <v>-0.1386446439595952</v>
+        <v>-0.03208280954651824</v>
       </c>
       <c r="E75">
-        <v>-0.09872944805325427</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07631567698019495</v>
+      </c>
+      <c r="F75">
+        <v>0.2130643022486771</v>
+      </c>
+      <c r="G75">
+        <v>-0.02794111281367498</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.004500137064530428</v>
+        <v>-0.1373064630928569</v>
       </c>
       <c r="C76">
-        <v>0.2301640872725193</v>
+        <v>0.1214181055981262</v>
       </c>
       <c r="D76">
-        <v>-0.144019756627809</v>
+        <v>-0.0221523858902718</v>
       </c>
       <c r="E76">
-        <v>-0.07065521670317548</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.07029899031489034</v>
+      </c>
+      <c r="F76">
+        <v>0.1347096835752339</v>
+      </c>
+      <c r="G76">
+        <v>0.01064786867995394</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01242804681300531</v>
+        <v>-0.06022274582337063</v>
       </c>
       <c r="C77">
-        <v>0.03459719564592968</v>
+        <v>0.06125116705913608</v>
       </c>
       <c r="D77">
-        <v>-0.04499008220005119</v>
+        <v>0.01217973632938137</v>
       </c>
       <c r="E77">
-        <v>-0.02394132117856182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04156942531308468</v>
+      </c>
+      <c r="F77">
+        <v>-0.0170205858269732</v>
+      </c>
+      <c r="G77">
+        <v>0.04864752115793394</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004035351356680815</v>
+        <v>-0.03990921916681817</v>
       </c>
       <c r="C78">
-        <v>0.03069745794822881</v>
+        <v>0.05154792706985867</v>
       </c>
       <c r="D78">
-        <v>-0.04228740865439568</v>
+        <v>0.005351676532131363</v>
       </c>
       <c r="E78">
-        <v>-0.01750538917256705</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01847867980210429</v>
+      </c>
+      <c r="F78">
+        <v>-0.03966553547735206</v>
+      </c>
+      <c r="G78">
+        <v>0.034880688932165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01529284529393411</v>
+        <v>-0.06118518204318604</v>
       </c>
       <c r="C80">
-        <v>0.2150490636142827</v>
+        <v>0.07018836407100935</v>
       </c>
       <c r="D80">
-        <v>-0.4427338105476686</v>
+        <v>0.01149152154709926</v>
       </c>
       <c r="E80">
-        <v>0.81544008573932</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06956493887119693</v>
+      </c>
+      <c r="F80">
+        <v>-0.02856558615365517</v>
+      </c>
+      <c r="G80">
+        <v>0.9086514054366814</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0009196274411972449</v>
+        <v>-0.1449910885994266</v>
       </c>
       <c r="C81">
-        <v>0.1833238895520154</v>
+        <v>0.09503026858242734</v>
       </c>
       <c r="D81">
-        <v>-0.09679683684100351</v>
+        <v>-0.0163452942320155</v>
       </c>
       <c r="E81">
-        <v>-0.05629464346607561</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04985332092676541</v>
+      </c>
+      <c r="F81">
+        <v>0.1362807220849541</v>
+      </c>
+      <c r="G81">
+        <v>0.01445917137703195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.05305488422023393</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03261231084802438</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.003099113702777462</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01397280675018575</v>
+      </c>
+      <c r="F82">
+        <v>0.002457606379129072</v>
+      </c>
+      <c r="G82">
+        <v>-0.005109102019791733</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.00676968209178215</v>
+        <v>-0.02854350354994133</v>
       </c>
       <c r="C83">
-        <v>0.03538435798229203</v>
+        <v>0.02016661058840327</v>
       </c>
       <c r="D83">
-        <v>-0.005916298958198647</v>
+        <v>0.005088884779233056</v>
       </c>
       <c r="E83">
-        <v>-0.009839535618615306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02754580160246477</v>
+      </c>
+      <c r="F83">
+        <v>-0.02026872751230052</v>
+      </c>
+      <c r="G83">
+        <v>0.02660575637619531</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.008296562275536793</v>
+        <v>-0.2394362451367505</v>
       </c>
       <c r="C85">
-        <v>0.2379439039868907</v>
+        <v>0.1503272630987685</v>
       </c>
       <c r="D85">
-        <v>-0.1538656134269566</v>
+        <v>-0.02112755435562004</v>
       </c>
       <c r="E85">
-        <v>-0.1170020041553633</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1252720319950097</v>
+      </c>
+      <c r="F85">
+        <v>0.2027266441282977</v>
+      </c>
+      <c r="G85">
+        <v>-0.05383210986017874</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.004602021827426883</v>
+        <v>-0.01005585664583215</v>
       </c>
       <c r="C86">
-        <v>0.001608012595410052</v>
+        <v>0.02354625119960409</v>
       </c>
       <c r="D86">
-        <v>0.00100659639489699</v>
+        <v>0.009081755253003481</v>
       </c>
       <c r="E86">
-        <v>-0.01566052897859211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02618617938888734</v>
+      </c>
+      <c r="F86">
+        <v>-0.01697257150154986</v>
+      </c>
+      <c r="G86">
+        <v>0.04533033504548551</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006546698688351517</v>
+        <v>-0.01353377801474242</v>
       </c>
       <c r="C87">
-        <v>0.01787772274166711</v>
+        <v>0.02870848112802238</v>
       </c>
       <c r="D87">
-        <v>-0.02230560099193505</v>
+        <v>0.01163818713635524</v>
       </c>
       <c r="E87">
-        <v>-0.01383370823669344</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07857137314878077</v>
+      </c>
+      <c r="F87">
+        <v>-0.0565801666933814</v>
+      </c>
+      <c r="G87">
+        <v>0.04295424210833641</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02611663425382078</v>
+        <v>-0.08609555684155293</v>
       </c>
       <c r="C88">
-        <v>0.04520303424269537</v>
+        <v>0.05850252909740217</v>
       </c>
       <c r="D88">
-        <v>-0.00951411956249055</v>
+        <v>0.02168830632198905</v>
       </c>
       <c r="E88">
-        <v>-0.01159063665923271</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.006850915464562133</v>
+      </c>
+      <c r="F88">
+        <v>0.007580881505281371</v>
+      </c>
+      <c r="G88">
+        <v>0.02594793320747184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.04952525003328906</v>
+        <v>-0.2194520759288154</v>
       </c>
       <c r="C89">
-        <v>0.2281784540941675</v>
+        <v>-0.3681575610302298</v>
       </c>
       <c r="D89">
-        <v>0.3626282612895993</v>
+        <v>-0.008207130859058756</v>
       </c>
       <c r="E89">
-        <v>0.1329666954153575</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01346655208927355</v>
+      </c>
+      <c r="F89">
+        <v>0.03595215215699706</v>
+      </c>
+      <c r="G89">
+        <v>0.0306028976199544</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.03673044916789335</v>
+        <v>-0.1887299363492298</v>
       </c>
       <c r="C90">
-        <v>0.1446327511655957</v>
+        <v>-0.3367223235635798</v>
       </c>
       <c r="D90">
-        <v>0.2998750655166336</v>
+        <v>-0.01172157960818986</v>
       </c>
       <c r="E90">
-        <v>0.1020173404771989</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.003731310593853011</v>
+      </c>
+      <c r="F90">
+        <v>0.04771279049415873</v>
+      </c>
+      <c r="G90">
+        <v>0.0003546436617293873</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.0001609649078719779</v>
+        <v>-0.2091970083486595</v>
       </c>
       <c r="C91">
-        <v>0.2578583641813305</v>
+        <v>0.135878731269629</v>
       </c>
       <c r="D91">
-        <v>-0.1535470524796886</v>
+        <v>-0.02507276390760191</v>
       </c>
       <c r="E91">
-        <v>-0.1059447034915844</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08762661667670112</v>
+      </c>
+      <c r="F91">
+        <v>0.1906420960625295</v>
+      </c>
+      <c r="G91">
+        <v>-0.00307790065135787</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.004191447148501419</v>
+        <v>-0.2068022573954618</v>
       </c>
       <c r="C92">
-        <v>0.294960981554909</v>
+        <v>-0.2683185603166212</v>
       </c>
       <c r="D92">
-        <v>0.2635037298717271</v>
+        <v>-0.053750846548511</v>
       </c>
       <c r="E92">
-        <v>0.08807552437057502</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.007774454474324034</v>
+      </c>
+      <c r="F92">
+        <v>0.1290753240342138</v>
+      </c>
+      <c r="G92">
+        <v>0.06559258238139462</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03519519136934152</v>
+        <v>-0.2134182197214862</v>
       </c>
       <c r="C93">
-        <v>0.1983979811717508</v>
+        <v>-0.333121268526575</v>
       </c>
       <c r="D93">
-        <v>0.3399807555429278</v>
+        <v>-0.01849639903889001</v>
       </c>
       <c r="E93">
-        <v>0.09608723346888452</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01038140309952661</v>
+      </c>
+      <c r="F93">
+        <v>0.02533737869971051</v>
+      </c>
+      <c r="G93">
+        <v>-0.0001051348411161752</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02009320490974743</v>
+        <v>-0.2804705426550944</v>
       </c>
       <c r="C94">
-        <v>0.2996802743770963</v>
+        <v>0.1572831628060429</v>
       </c>
       <c r="D94">
-        <v>-0.1117535789811331</v>
+        <v>-0.01439335709903998</v>
       </c>
       <c r="E94">
-        <v>-0.1410632494917895</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1122798616330249</v>
+      </c>
+      <c r="F94">
+        <v>0.3934167422617654</v>
+      </c>
+      <c r="G94">
+        <v>-0.1460958232263612</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006055667101762676</v>
+        <v>-0.08165533448119176</v>
       </c>
       <c r="C95">
-        <v>0.07639224739072725</v>
+        <v>0.07728034733008948</v>
       </c>
       <c r="D95">
-        <v>0.024937730764016</v>
+        <v>-0.007546735474808592</v>
       </c>
       <c r="E95">
-        <v>-0.09699923218248324</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07935923721783948</v>
+      </c>
+      <c r="F95">
+        <v>-0.1587858215032233</v>
+      </c>
+      <c r="G95">
+        <v>-0.05913130856750266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.002572511937914768</v>
+        <v>-0.2098286002462473</v>
       </c>
       <c r="C98">
-        <v>0.1798878443232494</v>
+        <v>0.04675067826044293</v>
       </c>
       <c r="D98">
-        <v>0.005913711452228338</v>
+        <v>-0.01702692671595729</v>
       </c>
       <c r="E98">
-        <v>-0.06177938379429847</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.07521263144929154</v>
+      </c>
+      <c r="F98">
+        <v>-0.2416846384747332</v>
+      </c>
+      <c r="G98">
+        <v>-0.03322951389987178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.00825827149072289</v>
+        <v>-0.01380793345208277</v>
       </c>
       <c r="C101">
-        <v>0.02663161906948162</v>
+        <v>0.02000868554377587</v>
       </c>
       <c r="D101">
-        <v>-0.005557272071568447</v>
+        <v>0.008288969525243989</v>
       </c>
       <c r="E101">
-        <v>-0.007782436736254256</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03503565538546876</v>
+      </c>
+      <c r="F101">
+        <v>0.02730998863713446</v>
+      </c>
+      <c r="G101">
+        <v>0.03764761247337442</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.0136952850691294</v>
+        <v>-0.1242177149940737</v>
       </c>
       <c r="C102">
-        <v>0.1451397039553272</v>
+        <v>0.08245145568567765</v>
       </c>
       <c r="D102">
-        <v>-0.07207034836554978</v>
+        <v>-0.0004187086926410827</v>
       </c>
       <c r="E102">
-        <v>-0.05182053290243268</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04396184700214471</v>
+      </c>
+      <c r="F102">
+        <v>0.06136057008975487</v>
+      </c>
+      <c r="G102">
+        <v>-0.0103638184300402</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002035555269052122</v>
+        <v>-0.004176403753367556</v>
       </c>
       <c r="C103">
-        <v>0.02246524538124676</v>
+        <v>0.005391096398046356</v>
       </c>
       <c r="D103">
-        <v>-0.02442064967695084</v>
+        <v>0.0006681884133175663</v>
       </c>
       <c r="E103">
-        <v>0.005136941309416969</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.000495692885443658</v>
+      </c>
+      <c r="F103">
+        <v>0.008435955210619264</v>
+      </c>
+      <c r="G103">
+        <v>0.01857584292689478</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9862075780556818</v>
+        <v>-0.03918042795217537</v>
       </c>
       <c r="C104">
-        <v>-0.09178499507865985</v>
+        <v>-0.04384626313423458</v>
       </c>
       <c r="D104">
-        <v>-0.03604106627701469</v>
+        <v>0.9862067563148842</v>
       </c>
       <c r="E104">
-        <v>0.01047377639072727</v>
+        <v>0.0465814185705976</v>
+      </c>
+      <c r="F104">
+        <v>0.03658939227932615</v>
+      </c>
+      <c r="G104">
+        <v>0.0002244940574618471</v>
       </c>
     </row>
   </sheetData>
